--- a/python_env/select group parts/10307-parts.xlsx
+++ b/python_env/select group parts/10307-parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\specification\select group parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\python_env\select group parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6A9FA-B964-4B41-A742-B4773700225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB2F4B1-2242-4626-9232-55980C8AF6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wing" sheetId="1" r:id="rId1"/>
@@ -357,17 +357,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,17 +540,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,17 +683,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,25 +826,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -857,25 +857,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="B2">
-        <v>0.81799999999999995</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -888,17 +888,17 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.903</v>
+        <v>1.093</v>
       </c>
       <c r="B9">
         <v>6.5625</v>
@@ -1127,17 +1127,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>1.3939999999999999</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
